--- a/vstack-hstack-excel-demo.xlsx
+++ b/vstack-hstack-excel-demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27715"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDD4F8E-73F1-4BC4-8E5F-9A9C5A02A484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4D3C4F-BD16-4273-976B-F9B60E4A42F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="income-statement" sheetId="3" r:id="rId1"/>
@@ -19,9 +19,45 @@
     <sheet name="north-region" sheetId="6" r:id="rId4"/>
     <sheet name="west-region" sheetId="7" r:id="rId5"/>
     <sheet name="east-region" sheetId="8" r:id="rId6"/>
+    <sheet name="sales-append" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -94,8 +130,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -151,29 +188,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,59 +231,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9.6"/>
-        <color theme="0"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color theme="0"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color theme="0"/>
+        <color rgb="FF0D0D0D"/>
         <name val="Segoe UI"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -274,6 +262,110 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color theme="0"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -423,6 +515,32 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9.6"/>
+        <color theme="0"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
         <color rgb="FF0D0D0D"/>
         <name val="Segoe UI"/>
         <family val="2"/>
@@ -552,85 +670,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
+        <color theme="0"/>
         <name val="Segoe UI"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -658,39 +698,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2498D102-563F-48A3-A12C-A77E24035099}" name="north_region" displayName="north_region" ref="A1:D4" totalsRowShown="0" headerRowDxfId="2" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2498D102-563F-48A3-A12C-A77E24035099}" name="north_region" displayName="north_region" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D4" xr:uid="{2498D102-563F-48A3-A12C-A77E24035099}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BE5771D6-6637-452F-858C-E8B7CC1AF799}" name="Region" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{551CFF18-B8E5-4333-8C23-3BC518655021}" name="Month" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{518E6F7F-9EEB-46B6-A266-66341B04E881}" name="Revenue" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{5665400C-6B46-42DB-B2D4-870C01EC47C3}" name="Expenses" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{BE5771D6-6637-452F-858C-E8B7CC1AF799}" name="Region" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{551CFF18-B8E5-4333-8C23-3BC518655021}" name="Month" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{518E6F7F-9EEB-46B6-A266-66341B04E881}" name="Revenue" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5665400C-6B46-42DB-B2D4-870C01EC47C3}" name="Expenses" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E30E3C08-2C7D-48FE-9CB9-55270C65C1FC}" name="west_region" displayName="west_region" ref="A1:D4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E30E3C08-2C7D-48FE-9CB9-55270C65C1FC}" name="west_region" displayName="west_region" ref="A1:D4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D4" xr:uid="{E30E3C08-2C7D-48FE-9CB9-55270C65C1FC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{180D7857-3823-434F-A7E8-1A587AE85CF9}" name="Region" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{3E2AAEFA-468A-4FF6-ADEE-4CDC2174F3BF}" name="Month" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{08F014C5-6AC0-4AC3-A7D7-B416D8609987}" name="Revenue" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{6FDC46CD-C364-4F65-B43E-9CF1D2D8E040}" name="Expenses" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{180D7857-3823-434F-A7E8-1A587AE85CF9}" name="Region" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{3E2AAEFA-468A-4FF6-ADEE-4CDC2174F3BF}" name="Month" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{08F014C5-6AC0-4AC3-A7D7-B416D8609987}" name="Revenue" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{6FDC46CD-C364-4F65-B43E-9CF1D2D8E040}" name="Expenses" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{299F3A28-98BC-44E3-8EAB-2FB84591BAF7}" name="east_region" displayName="east_region" ref="A1:D4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{299F3A28-98BC-44E3-8EAB-2FB84591BAF7}" name="east_region" displayName="east_region" ref="A1:D4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D4" xr:uid="{299F3A28-98BC-44E3-8EAB-2FB84591BAF7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{09FF2B13-EEA7-4319-950C-E8E6AEC33944}" name="Region" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5CB66427-730A-4BB4-9840-45E9F36442BC}" name="Month" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A2CA018F-E4C9-436D-A1BB-2CB0E0739967}" name="Revenue" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{D72A6AD0-F78C-48F1-98E4-B440F6C10AC9}" name="Expenses" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{09FF2B13-EEA7-4319-950C-E8E6AEC33944}" name="Region" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5CB66427-730A-4BB4-9840-45E9F36442BC}" name="Month" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A2CA018F-E4C9-436D-A1BB-2CB0E0739967}" name="Revenue" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D72A6AD0-F78C-48F1-98E4-B440F6C10AC9}" name="Expenses" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1015,109 +1055,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD979E3-A138-4F84-937A-E08BBD25FFD9}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12" style="2"/>
-    <col min="2" max="2" width="12" style="7"/>
-    <col min="3" max="16384" width="12" style="2"/>
+    <col min="2" max="2" width="12" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>150000</v>
       </c>
+      <c r="C2" s="5" cm="1">
+        <f t="array" ref="C2:D11">_xlfn.HSTACK('february-statement:march-statement'!B2:B11)</f>
+        <v>120000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>180000</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>-60000</v>
       </c>
+      <c r="C3" s="5">
+        <v>-50000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-70000</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>90000</v>
       </c>
+      <c r="C4" s="5">
+        <v>70000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>110000</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>-30000</v>
       </c>
+      <c r="C5" s="5">
+        <v>-20000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-40000</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>-5000</v>
       </c>
+      <c r="C6" s="5">
+        <v>-5000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-6000</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>55000</v>
       </c>
+      <c r="C7" s="5">
+        <v>45000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>64000</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>-4000</v>
       </c>
+      <c r="C8" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-5000</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>51000</v>
       </c>
+      <c r="C9" s="5">
+        <v>42000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>59000</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>-10200</v>
       </c>
+      <c r="C10" s="5">
+        <v>-8400</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-11800</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>40800</v>
+      </c>
+      <c r="C11" s="5">
+        <v>33600</v>
+      </c>
+      <c r="D11" s="5">
+        <v>47200</v>
       </c>
     </row>
   </sheetData>
@@ -1142,110 +1241,96 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>120000</v>
       </c>
-      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>-50000</v>
       </c>
-      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>70000</v>
       </c>
-      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>-20000</v>
       </c>
-      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>-5000</v>
       </c>
-      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45000</v>
       </c>
-      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>-3000</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>42000</v>
       </c>
-      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>-8400</v>
       </c>
-      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>33600</v>
       </c>
-      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,110 +1354,96 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>180000</v>
       </c>
-      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>-70000</v>
       </c>
-      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>110000</v>
       </c>
-      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>-40000</v>
       </c>
-      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>-6000</v>
       </c>
-      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>64000</v>
       </c>
-      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>-5000</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>59000</v>
       </c>
-      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>-11800</v>
       </c>
-      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>47200</v>
       </c>
-      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1383,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1128EF65-7E64-4026-AE2C-A23FB5AD6B55}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1394,172 +1465,172 @@
     <col min="4" max="4" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>12000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>7500</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>18000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>8200</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>15000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>9000</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1573,7 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5645CDD2-FE7C-4FEA-A7C0-46104C2C0E15}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1584,172 +1655,172 @@
     <col min="4" max="4" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>20000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>12000</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>22000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>13000</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>25000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>15000</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1763,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D06241-ED5F-487D-8BCD-9FA9F66D1F8C}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1774,172 +1845,172 @@
     <col min="4" max="4" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>15000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>9000</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>17000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>10000</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>14000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>8500</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1947,4 +2018,161 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBE0578-FCE6-4A15-BFC1-BE9EB1B7BC76}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="4" width="9.06640625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:D10">_xlfn.VSTACK(north_region[#All], west_region[], east_region[])</f>
+        <v>Region</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Month</v>
+      </c>
+      <c r="C1" s="9" t="str">
+        <v>Revenue</v>
+      </c>
+      <c r="D1" s="9" t="str">
+        <v>Expenses</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="str">
+        <v>North</v>
+      </c>
+      <c r="B2" t="str">
+        <v>January</v>
+      </c>
+      <c r="C2" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D2" s="9">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="str">
+        <v>North</v>
+      </c>
+      <c r="B3" t="str">
+        <v>February</v>
+      </c>
+      <c r="C3" s="9">
+        <v>18000</v>
+      </c>
+      <c r="D3" s="9">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="str">
+        <v>North</v>
+      </c>
+      <c r="B4" t="str">
+        <v>March</v>
+      </c>
+      <c r="C4" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="9">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="str">
+        <v>West</v>
+      </c>
+      <c r="B5" t="str">
+        <v>January</v>
+      </c>
+      <c r="C5" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="9">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="str">
+        <v>West</v>
+      </c>
+      <c r="B6" t="str">
+        <v>February</v>
+      </c>
+      <c r="C6" s="9">
+        <v>22000</v>
+      </c>
+      <c r="D6" s="9">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="str">
+        <v>West</v>
+      </c>
+      <c r="B7" t="str">
+        <v>March</v>
+      </c>
+      <c r="C7" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D7" s="9">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="str">
+        <v>East</v>
+      </c>
+      <c r="B8" t="str">
+        <v>January</v>
+      </c>
+      <c r="C8" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D8" s="9">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="str">
+        <v>East</v>
+      </c>
+      <c r="B9" t="str">
+        <v>February</v>
+      </c>
+      <c r="C9" s="9">
+        <v>17000</v>
+      </c>
+      <c r="D9" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="str">
+        <v>East</v>
+      </c>
+      <c r="B10" t="str">
+        <v>March</v>
+      </c>
+      <c r="C10" s="9">
+        <v>14000</v>
+      </c>
+      <c r="D10" s="9">
+        <v>8500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>